--- a/Wifi module Logs/HaierFlexisWhiteMatt_firmware_2_5_14/HaierFlexisWhiteMatt.xlsx
+++ b/Wifi module Logs/HaierFlexisWhiteMatt_firmware_2_5_14/HaierFlexisWhiteMatt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>ff</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Status data</t>
+  </si>
+  <si>
+    <t>Command</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A2:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +601,9 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>3</v>
